--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -1,44 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukes\Documents\GitHub\stock-alerts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC134F07-98C7-4C1C-926B-A7CDB98BBB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1480" windowWidth="17930" windowHeight="8720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,43 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -377,35 +353,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>daily action</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>aapl</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$295.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$301.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$294.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$297.56</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>36576653</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.008472852979055107</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$166.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$181.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>$163.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$180.94</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4379990</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.08871841155234661</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$5.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$5.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>$4.86</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>50916905</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03762376237623753</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$181.50</t>
+          <t>$182.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$180.94</t>
+          <t>$178.52</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4379990</v>
+        <v>4593290</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08871841155234661</v>
+        <v>-0.07412815884476549</v>
       </c>
     </row>
     <row r="4">
@@ -509,14 +509,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$4.86</t>
+          <t>$4.88</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>50916905</v>
+        <v>53479480</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03762376237623753</v>
+        <v>0.03465346534653462</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$182.42</t>
+          <t>$182.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$178.52</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4593290</v>
+        <v>6195945</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07412815884476549</v>
+        <v>-0.08303249097472931</v>
       </c>
     </row>
     <row r="4">
@@ -504,19 +504,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$4.83</t>
+          <t>$4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$4.88</t>
+          <t>$4.86</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>53479480</v>
+        <v>70331290</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03465346534653462</v>
+        <v>0.03762376237623753</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$181.50</t>
+          <t>$182.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$180.94</t>
+          <t>$180.00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4379990</v>
+        <v>6195945</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08871841155234661</v>
+        <v>-0.08303249097472931</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +504,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$4.83</t>
+          <t>$4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>50916905</v>
+        <v>70331290</v>
       </c>
       <c r="I4" t="n">
         <v>0.03762376237623753</v>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$180.00</t>
+          <t>$179.75</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6195945</v>
+        <v>6285530</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08303249097472931</v>
+        <v>-0.08152827918170887</v>
       </c>
     </row>
     <row r="4">
@@ -509,14 +509,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$4.86</t>
+          <t>$4.84</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>70331290</v>
+        <v>71570373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03762376237623753</v>
+        <v>0.04059405940594061</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$179.75</t>
+          <t>$180.09</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6285530</v>
+        <v>6326319</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08152827918170887</v>
+        <v>-0.08354392298435633</v>
       </c>
     </row>
     <row r="4">
@@ -488,35 +488,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$5.05</t>
+          <t>$6.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$5.09</t>
+          <t>$6.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$4.82</t>
+          <t>$6.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$4.84</t>
+          <t>$6.00</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>71570373</v>
+        <v>83848987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04059405940594061</v>
+        <v>0.03145161290322585</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,29 +420,29 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$295.06</t>
+          <t>$300.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$301.00</t>
+          <t>$303.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$294.46</t>
+          <t>$298.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$297.56</t>
+          <t>$300.63</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>36576653</v>
+        <v>35417197</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.008472852979055107</v>
+        <v>-0.0005657991080344003</v>
       </c>
     </row>
     <row r="3">
@@ -472,14 +472,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$180.09</t>
+          <t>$180.81</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6326319</v>
+        <v>7273902</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08354392298435633</v>
+        <v>-0.08790613718411561</v>
       </c>
     </row>
     <row r="4">
@@ -504,19 +504,93 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$6.00</t>
+          <t>$5.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$6.00</t>
+          <t>$5.98</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>83848987</v>
+        <v>115711455</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03145161290322585</v>
+        <v>0.03548387096774189</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$5.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$5.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>$4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>$4.87</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>88647163</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03564356435643559</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>msft</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$182.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$184.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$181.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>$182.54</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>32031869</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.002526362038664211</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -414,35 +414,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>aapl</t>
+          <t>w</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$300.46</t>
+          <t>$166.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$303.24</t>
+          <t>$182.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$298.87</t>
+          <t>$163.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$300.63</t>
+          <t>$180.81</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>35417197</v>
+        <v>7277418</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0005657991080344003</v>
+        <v>-0.08790613718411561</v>
       </c>
     </row>
     <row r="3">
@@ -451,35 +451,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$166.20</t>
+          <t>$6.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$182.44</t>
+          <t>$6.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$163.18</t>
+          <t>$5.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$180.81</t>
+          <t>$5.98</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7273902</v>
+        <v>117074009</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08790613718411561</v>
+        <v>0.03548387096774189</v>
       </c>
     </row>
     <row r="4">
@@ -488,35 +488,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>f</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$6.20</t>
+          <t>$5.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$6.25</t>
+          <t>$5.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$5.97</t>
+          <t>$4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$5.98</t>
+          <t>$4.87</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>115711455</v>
+        <v>89235814</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03548387096774189</v>
+        <v>0.03564356435643559</v>
       </c>
     </row>
     <row r="5">
@@ -525,35 +525,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>msft</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$5.05</t>
+          <t>$182.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$5.09</t>
+          <t>$184.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$4.82</t>
+          <t>$181.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$4.87</t>
+          <t>$182.54</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>88647163</v>
+        <v>32094943</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03564356435643559</v>
+        <v>-0.002526362038664211</v>
       </c>
     </row>
     <row r="6">
@@ -562,35 +562,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>msft</t>
+          <t>aapl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$182.08</t>
+          <t>$300.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$184.20</t>
+          <t>$303.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$181.63</t>
+          <t>$298.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$182.54</t>
+          <t>$300.63</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>32031869</v>
+        <v>35512635</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.002526362038664211</v>
+        <v>-0.0005657991080344003</v>
       </c>
     </row>
   </sheetData>

--- a/stock_info.xlsx
+++ b/stock_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,35 +414,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>estc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$166.20</t>
+          <t>$67.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$182.44</t>
+          <t>$70.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$163.18</t>
+          <t>$66.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$180.81</t>
+          <t>$70.22</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7277418</v>
+        <v>565135</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08790613718411561</v>
+        <v>-0.04099332839140105</v>
       </c>
     </row>
     <row r="3">
@@ -451,35 +451,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>mdb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$6.20</t>
+          <t>$169.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$6.25</t>
+          <t>$172.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$5.97</t>
+          <t>$167.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$5.98</t>
+          <t>$170.61</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>117074009</v>
+        <v>654582</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03548387096774189</v>
+        <v>-0.009228039041703651</v>
       </c>
     </row>
     <row r="4">
@@ -488,35 +488,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$5.05</t>
+          <t>$28.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$5.09</t>
+          <t>$29.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$4.82</t>
+          <t>$27.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$4.87</t>
+          <t>$29.47</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>89235814</v>
+        <v>10056971</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03564356435643559</v>
+        <v>-0.05249999999999996</v>
       </c>
     </row>
     <row r="5">
@@ -525,72 +525,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>msft</t>
+          <t>smar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$182.08</t>
+          <t>$55.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$184.20</t>
+          <t>$57.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$181.63</t>
+          <t>$55.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$182.54</t>
+          <t>$56.53</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>32094943</v>
+        <v>654601</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002526362038664211</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>aapl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$300.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$303.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$298.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$300.63</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>35512635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.0005657991080344003</v>
+        <v>-0.01163206871868287</v>
       </c>
     </row>
   </sheetData>
